--- a/General/metadata/CheckBox.xlsx
+++ b/General/metadata/CheckBox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\PycharmProjects\ABCD\General\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508410AF-C697-4E81-8D77-D243385CBDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76731E9D-19F9-4F5F-A840-8D4967944397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,268 +33,268 @@
     <t>NewValue</t>
   </si>
   <si>
-    <t>"My Home"</t>
-  </si>
-  <si>
-    <t>"Board Game Store"</t>
-  </si>
-  <si>
-    <t>"Coffee Shop"</t>
-  </si>
-  <si>
-    <t>"Public Library"</t>
-  </si>
-  <si>
     <t>ColumnID</t>
   </si>
   <si>
-    <t>"Catan"</t>
-  </si>
-  <si>
-    <t>"Codenames"</t>
-  </si>
-  <si>
-    <t>"The Lord of the Rings: The Card Game"</t>
-  </si>
-  <si>
-    <t>"The Witcher: Old World"</t>
-  </si>
-  <si>
-    <t>"War of the Ring"</t>
-  </si>
-  <si>
-    <t>"Zombicide: Black Plague"</t>
-  </si>
-  <si>
-    <t>"Abstract"</t>
-  </si>
-  <si>
-    <t>"Customizable"</t>
-  </si>
-  <si>
-    <t>"Family"</t>
-  </si>
-  <si>
-    <t>"Party"</t>
-  </si>
-  <si>
-    <t>"Strategy"</t>
-  </si>
-  <si>
-    <t>"Thematic"</t>
-  </si>
-  <si>
-    <t>"Wargames"</t>
-  </si>
-  <si>
-    <t>"Halibut in Lemon Wine Sauce"</t>
-  </si>
-  <si>
-    <t>"Hot Crab Dip"</t>
-  </si>
-  <si>
-    <t>"Peanut Butter Hummus"</t>
-  </si>
-  <si>
-    <t>"Rosemary Pork and Mushrooms"</t>
-  </si>
-  <si>
-    <t>"Spaghetti and Classic Marinara Sauce"</t>
-  </si>
-  <si>
-    <t>"Spinach Dip"</t>
-  </si>
-  <si>
-    <t>"Sweet Potato Casserole"</t>
-  </si>
-  <si>
-    <t>"Google Groups"</t>
-  </si>
-  <si>
-    <t>"Google Chat"</t>
-  </si>
-  <si>
-    <t>"Slack"</t>
-  </si>
-  <si>
-    <t>"Discord"</t>
-  </si>
-  <si>
-    <t>"Facebook Groups"</t>
-  </si>
-  <si>
-    <t>"Meetup"</t>
-  </si>
-  <si>
-    <t>"Avocado"</t>
-  </si>
-  <si>
-    <t>"Bananas"</t>
-  </si>
-  <si>
-    <t>"Canola Oil"</t>
-  </si>
-  <si>
-    <t>"Dairy"</t>
-  </si>
-  <si>
-    <t>"Gluten"</t>
-  </si>
-  <si>
-    <t>"Meat"</t>
-  </si>
-  <si>
-    <t>"Peanuts"</t>
-  </si>
-  <si>
-    <t>"Pineapple"</t>
-  </si>
-  <si>
-    <t>"Potatoes"</t>
-  </si>
-  <si>
-    <t>"Pumpkin Seeds"</t>
-  </si>
-  <si>
-    <t>"Shellfish"</t>
-  </si>
-  <si>
-    <t>"Tree Nuts"</t>
-  </si>
-  <si>
-    <t>"Vegetable Oil"</t>
-  </si>
-  <si>
-    <t>'"I would be willing to commit to playing a long game over multiple days."'</t>
-  </si>
-  <si>
-    <t>'"I would be willing to participate in a tournament that lasts for multiple days."'</t>
-  </si>
-  <si>
-    <t>"Long Game"</t>
-  </si>
-  <si>
-    <t>"Tournament"</t>
-  </si>
-  <si>
-    <t>"Apples to Apples"</t>
-  </si>
-  <si>
-    <t>"Bang"</t>
-  </si>
-  <si>
-    <t>"Boggle"</t>
-  </si>
-  <si>
-    <t>"Dutch Blitz"</t>
-  </si>
-  <si>
-    <t>"Canasta"</t>
-  </si>
-  <si>
-    <t>"Charades"</t>
-  </si>
-  <si>
-    <t>"Cribbage"</t>
-  </si>
-  <si>
-    <t>"Dominion"</t>
-  </si>
-  <si>
-    <t>"Hanabi"</t>
-  </si>
-  <si>
-    <t>"Mage Knight Board Game"</t>
-  </si>
-  <si>
-    <t>"Monopoly"</t>
-  </si>
-  <si>
-    <t>"Phase 10"</t>
-  </si>
-  <si>
-    <t>"Pictionary"</t>
-  </si>
-  <si>
-    <t>"Race for the Galaxy"</t>
-  </si>
-  <si>
-    <t>"Rescuing Robinhood"</t>
-  </si>
-  <si>
-    <t>"RummiKub"</t>
-  </si>
-  <si>
-    <t>"Small World"</t>
-  </si>
-  <si>
-    <t>"St. Petersburg"</t>
-  </si>
-  <si>
-    <t>"Taboo"</t>
-  </si>
-  <si>
-    <t>"Ticket to Ride"</t>
-  </si>
-  <si>
-    <t>"True Colors"</t>
-  </si>
-  <si>
-    <t>"Ultimate Werewolf"</t>
-  </si>
-  <si>
-    <t>"Uno"</t>
-  </si>
-  <si>
-    <t>"Baked Goods"</t>
-  </si>
-  <si>
-    <t>"Beer"</t>
-  </si>
-  <si>
-    <t>"Bubbly Water"</t>
-  </si>
-  <si>
-    <t>"Cheese"</t>
-  </si>
-  <si>
-    <t>"Chips"</t>
-  </si>
-  <si>
-    <t>"Deviled Eggs"</t>
-  </si>
-  <si>
-    <t>"Drinks"</t>
-  </si>
-  <si>
-    <t>"Fruit"</t>
-  </si>
-  <si>
-    <t>"Guacamole"</t>
-  </si>
-  <si>
-    <t>"Kombucha"</t>
-  </si>
-  <si>
-    <t>"Nachos"</t>
-  </si>
-  <si>
-    <t>"Popcorn"</t>
-  </si>
-  <si>
-    <t>"Salad"</t>
-  </si>
-  <si>
-    <t>"Salsa"</t>
-  </si>
-  <si>
-    <t>"Tea"</t>
-  </si>
-  <si>
-    <t>"Veggies"</t>
-  </si>
-  <si>
-    <t>"Wine"</t>
+    <t>My Home</t>
+  </si>
+  <si>
+    <t>Board Game Store</t>
+  </si>
+  <si>
+    <t>Coffee Shop</t>
+  </si>
+  <si>
+    <t>Public Library</t>
+  </si>
+  <si>
+    <t>Catan</t>
+  </si>
+  <si>
+    <t>Codenames</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Card Game</t>
+  </si>
+  <si>
+    <t>The Witcher: Old World</t>
+  </si>
+  <si>
+    <t>War of the Ring</t>
+  </si>
+  <si>
+    <t>Zombicide: Black Plague</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Customizable</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Thematic</t>
+  </si>
+  <si>
+    <t>Wargames</t>
+  </si>
+  <si>
+    <t>"I would be willing to commit to playing a long game over multiple days."</t>
+  </si>
+  <si>
+    <t>"I would be willing to participate in a tournament that lasts for multiple days."</t>
+  </si>
+  <si>
+    <t>Apples to Apples</t>
+  </si>
+  <si>
+    <t>Bang</t>
+  </si>
+  <si>
+    <t>Boggle</t>
+  </si>
+  <si>
+    <t>Dutch Blitz</t>
+  </si>
+  <si>
+    <t>Canasta</t>
+  </si>
+  <si>
+    <t>Charades</t>
+  </si>
+  <si>
+    <t>Cribbage</t>
+  </si>
+  <si>
+    <t>Dominion</t>
+  </si>
+  <si>
+    <t>Hanabi</t>
+  </si>
+  <si>
+    <t>Mage Knight Board Game</t>
+  </si>
+  <si>
+    <t>Monopoly</t>
+  </si>
+  <si>
+    <t>Phase 10</t>
+  </si>
+  <si>
+    <t>Pictionary</t>
+  </si>
+  <si>
+    <t>Race for the Galaxy</t>
+  </si>
+  <si>
+    <t>Rescuing Robinhood</t>
+  </si>
+  <si>
+    <t>RummiKub</t>
+  </si>
+  <si>
+    <t>Small World</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Taboo</t>
+  </si>
+  <si>
+    <t>Ticket to Ride</t>
+  </si>
+  <si>
+    <t>True Colors</t>
+  </si>
+  <si>
+    <t>Ultimate Werewolf</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>Halibut in Lemon Wine Sauce</t>
+  </si>
+  <si>
+    <t>Hot Crab Dip</t>
+  </si>
+  <si>
+    <t>Peanut Butter Hummus</t>
+  </si>
+  <si>
+    <t>Rosemary Pork and Mushrooms</t>
+  </si>
+  <si>
+    <t>Spaghetti and Classic Marinara Sauce</t>
+  </si>
+  <si>
+    <t>Spinach Dip</t>
+  </si>
+  <si>
+    <t>Sweet Potato Casserole</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Canola Oil</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Gluten</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Pumpkin Seeds</t>
+  </si>
+  <si>
+    <t>Shellfish</t>
+  </si>
+  <si>
+    <t>Tree Nuts</t>
+  </si>
+  <si>
+    <t>Vegetable Oil</t>
+  </si>
+  <si>
+    <t>Baked Goods</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Bubbly Water</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Deviled Eggs</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Guacamole</t>
+  </si>
+  <si>
+    <t>Kombucha</t>
+  </si>
+  <si>
+    <t>Nachos</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Salsa</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Veggies</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Google Groups</t>
+  </si>
+  <si>
+    <t>Google Chat</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Facebook Groups</t>
+  </si>
+  <si>
+    <t>Meetup</t>
+  </si>
+  <si>
+    <t>Long Game</t>
+  </si>
+  <si>
+    <t>Tournament</t>
   </si>
 </sst>
 </file>
@@ -615,13 +615,13 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.44140625" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,15 +632,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>11</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>12</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>12</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>12</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>12</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>12</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>13</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>13</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>13</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>13</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>13</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>13</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C72">
         <v>13</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>13</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>13</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>13</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>13</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>13</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>13</v>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>13</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>16</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>16</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>16</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>16</v>
